--- a/forms/app/stockout.xlsx
+++ b/forms/app/stockout.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -418,7 +418,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-&lt;b&gt;ACT: ${requested_act} blisters&lt;/b&gt;</t>
+&lt;b&gt;Requested → ACT: ${requested_act} blisters&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -427,49 +427,210 @@
     <t xml:space="preserve">${act_was_selected} = ‘yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">act_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT blisters given</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_zinc</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Zinc: ${requested_zinc} tablets&lt;/b&gt;</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Requested → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zinc: ${requested_zinc} tablets&lt;/b&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">${zinc_was_selected} = ‘yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">zinc_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc tablet given</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_amoxicillin</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Amoxicillin: ${requested_amoxicillin} tablets&lt;/b&gt;</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Requested → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Amoxicillin: ${requested_amoxicillin} tablets&lt;/b&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">${amoxicillin_was_selected} = ‘yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">amoxicillin_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoxicillin tablets given</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Condoms: ${requested_condoms} pieces&lt;/b&gt;</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Requested → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Condoms: ${requested_condoms} pieces&lt;/b&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">${condoms_was_selected} = ‘yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">condoms_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condom pieces given</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_contraceptives</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Contraceptives: ${requested_contraceptives} tablets&lt;/b&gt;</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Requested → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Contraceptives: ${requested_contraceptives} tablets&lt;/b&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">${contraceptives_was_selected} = ‘yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">contraceptives_given </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraceptives tablet given</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_sayana</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Sayana: ${requested_sayana} pieces &lt;/b&gt;</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Requested → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="aakar"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sayana: ${requested_sayana} pieces &lt;/b&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">${sayana_was_selected} = ‘yes’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sayana_given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayana Press pieces given</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -534,7 +695,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -589,6 +750,17 @@
       <name val="aakar"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFE36C09"/>
+      <name val="aakar"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="aakar"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -666,7 +838,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,15 +899,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,11 +1010,11 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2072,7 +2248,7 @@
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>96</v>
@@ -2083,8 +2259,8 @@
       <c r="D43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>98</v>
+      <c r="E43" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,33 +2268,33 @@
         <v>89</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,64 +2302,157 @@
         <v>89</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E47" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+    </row>
     <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2299,7 +2568,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
@@ -2308,83 +2577,83 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2409,34 +2678,34 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="17" t="n">
+        <v>139</v>
+      </c>
+      <c r="C2" s="18" t="n">
         <v>43880</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/stockout.xlsx
+++ b/forms/app/stockout.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="143">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve">NO-LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task name</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -436,32 +442,7 @@
     <t xml:space="preserve">n_zinc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Requested → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Zinc: ${requested_zinc} tablets&lt;/b&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;b&gt;Requested → Zinc: ${requested_zinc} tablets&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${zinc_was_selected} = ‘yes’</t>
@@ -476,32 +457,7 @@
     <t xml:space="preserve">n_amoxicillin</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Requested → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Amoxicillin: ${requested_amoxicillin} tablets&lt;/b&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;b&gt;Requested → Amoxicillin: ${requested_amoxicillin} tablets&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${amoxicillin_was_selected} = ‘yes’</t>
@@ -516,32 +472,7 @@
     <t xml:space="preserve">n_condoms</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Requested → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Condoms: ${requested_condoms} pieces&lt;/b&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;b&gt;Requested → Condoms: ${requested_condoms} pieces&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${condoms_was_selected} = ‘yes’</t>
@@ -556,32 +487,7 @@
     <t xml:space="preserve">n_contraceptives</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Requested → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Contraceptives: ${requested_contraceptives} tablets&lt;/b&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;b&gt;Requested → Contraceptives: ${requested_contraceptives} tablets&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${contraceptives_was_selected} = ‘yes’</t>
@@ -596,32 +502,7 @@
     <t xml:space="preserve">n_sayana</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Requested → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sayana: ${requested_sayana} pieces &lt;/b&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;b&gt;Requested → Sayana: ${requested_sayana} pieces &lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">${sayana_was_selected} = ‘yes’</t>
@@ -745,6 +626,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FFE36C09"/>
       <name val="aakar"/>
@@ -752,15 +640,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFE36C09"/>
-      <name val="aakar"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="aakar"/>
-      <family val="0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -784,7 +667,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,22 +677,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBE5F1"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -838,7 +742,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,24 +783,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -924,7 +840,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
     <dxf>
       <font>
         <name val="Lohit Devanagari"/>
@@ -935,6 +851,133 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -949,22 +992,22 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF980000"/>
       <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4A7D6"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFDBE5F1"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFC27BA0"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDBE5F1"/>
+      <rgbColor rgb="FFD9D2E9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -974,13 +1017,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFB4A7D6"/>
+      <rgbColor rgb="FFEAD1DC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -988,7 +1031,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFE36C09"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF76A5AF"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1007,14 +1050,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,41 +1254,44 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>32</v>
@@ -1271,10 +1317,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>32</v>
@@ -1300,10 +1346,10 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>32</v>
@@ -1329,10 +1375,10 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>32</v>
@@ -1358,10 +1404,10 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>32</v>
@@ -1387,10 +1433,10 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>32</v>
@@ -1416,10 +1462,10 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>32</v>
@@ -1445,10 +1491,10 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>32</v>
@@ -1474,10 +1520,10 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
@@ -1503,10 +1549,10 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>32</v>
@@ -1531,170 +1577,176 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1717,7 +1769,7 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1739,54 +1791,48 @@
       <c r="S24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -1797,25 +1843,25 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -1826,25 +1872,25 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -1855,25 +1901,25 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -1884,25 +1930,25 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -1913,25 +1959,25 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -1942,25 +1988,25 @@
       <c r="S31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -1971,25 +2017,25 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -2000,25 +2046,25 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -2029,25 +2075,25 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -2058,25 +2104,25 @@
       <c r="S35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -2087,25 +2133,25 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -2116,25 +2162,25 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -2145,25 +2191,25 @@
       <c r="S38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -2174,47 +2220,49 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2229,231 +2277,257 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="13" t="s">
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="C43" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="13" t="s">
+      <c r="D43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="E43" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="17" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-    </row>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+    </row>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2487,66 +2561,132 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A25:A26">
+  <conditionalFormatting sqref="A26:A27">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A28">
+  <conditionalFormatting sqref="A28:A29">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A34">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A38">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A39">
+  <conditionalFormatting sqref="A39:A40">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A6:V6">
+    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("calculate",A6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:V6">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($A6="begin group", NOT($B6 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:V6">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($A6="end group", $B6 = "", $C6 = "", $D6 = "", $E6 = "", $F6 = "", $G6 = "", $H6 = "", $I6 = "", $J6 = "", $K6 = "", $L6 = "", $M6 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:V6">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:V6">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>AND($A6="begin repeat", NOT($B6 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:V6">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>AND($A6="end repeat", $B6 = "", $C6 = "", $D6 = "", $E6 = "", $F6 = "", $G6 = "", $H6 = "", $I6 = "", $J6 = "", $K6 = "", $L6 = "", $M6 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>AND(AND(NOT($A6 = "end group"), NOT($A6 = "end repeat"), NOT($A6 = "")), $B6 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>COUNTIF($B$2:$B$258,B6)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(AND(NOT($A6 = "end group"), NOT($A6 = "end repeat"), NOT($A6 = "")), $C6 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>AND(NOT($G6 = ""), $H6 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>AND($I6 = "", $A6 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D6" type="list">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2568,7 +2708,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
@@ -2577,83 +2717,83 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="D1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2678,34 +2818,34 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="18" t="n">
+        <v>141</v>
+      </c>
+      <c r="C2" s="21" t="n">
         <v>43880</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
